--- a/TalleySheet.xlsx
+++ b/TalleySheet.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EDB2026B-6005-4725-A2EF-E6EF0B67C538}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="1650" windowWidth="18435" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11592" windowHeight="3480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CurrentTalleys" r:id="rId1" sheetId="1"/>
+    <sheet name="CurrentTalleys" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -51,13 +52,18 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>04A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,16 +91,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -111,10 +118,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -149,7 +156,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,9 +189,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,6 +241,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -272,7 +313,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -281,13 +322,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -297,7 +338,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -306,7 +347,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -315,7 +356,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -325,12 +366,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -361,7 +402,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -380,7 +421,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -392,16 +433,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,21 +456,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -443,7 +484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -457,7 +498,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TalleySheet.xlsx
+++ b/TalleySheet.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EDB2026B-6005-4725-A2EF-E6EF0B67C538}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11592" windowHeight="3480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="1650" windowWidth="18435" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="CurrentTalleys" sheetId="1" r:id="rId1"/>
+    <sheet name="CurrentTalleys" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -52,18 +51,13 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>04A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,17 +85,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -118,10 +111,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -156,7 +149,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,26 +182,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,23 +217,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -313,7 +272,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -322,13 +281,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -338,7 +297,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -347,7 +306,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -356,7 +315,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -366,12 +325,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -402,7 +361,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -421,7 +380,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -433,16 +392,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,21 +415,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -484,7 +443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -498,22 +457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>